--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Starkbank-Code\Git-Excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0936DBA-B323-40F6-9A27-44D018DB9561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF5461-2B8F-4176-8064-0B070165112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Principal" sheetId="1" r:id="rId2"/>
-    <sheet name="Compras Cartão" sheetId="12" r:id="rId3"/>
-    <sheet name="Extrato Cartão" sheetId="11" r:id="rId4"/>
-    <sheet name="Extrato" sheetId="7" r:id="rId5"/>
-    <sheet name="Consulta de Transferencias" sheetId="17" r:id="rId6"/>
-    <sheet name="Transferências Com Aprovação" sheetId="4" r:id="rId7"/>
-    <sheet name="Consulta de Aprovações" sheetId="15" r:id="rId8"/>
-    <sheet name="Consulta de Chaves Pix" sheetId="3" r:id="rId9"/>
-    <sheet name="Consulta de Boletos Emitidos" sheetId="8" r:id="rId10"/>
-    <sheet name="Pagamento de Boleto" sheetId="16" r:id="rId11"/>
-    <sheet name="Historico pagamento de Boletos" sheetId="14" r:id="rId12"/>
-    <sheet name="Histórico de Boletos Emitido" sheetId="9" r:id="rId13"/>
-    <sheet name="Consulta de Invoice Emitidas" sheetId="6" r:id="rId14"/>
-    <sheet name="Reversão de invoice" sheetId="13" r:id="rId15"/>
-    <sheet name="Emissão de Boleto" sheetId="10" r:id="rId16"/>
-    <sheet name="Emissão de Invoice Pix" sheetId="5" r:id="rId17"/>
+    <sheet name="Solicitações de Cartões" sheetId="18" r:id="rId3"/>
+    <sheet name="Compras Cartão" sheetId="12" r:id="rId4"/>
+    <sheet name="Extrato Cartão" sheetId="11" r:id="rId5"/>
+    <sheet name="Extrato" sheetId="7" r:id="rId6"/>
+    <sheet name="Consulta de Transferencias" sheetId="17" r:id="rId7"/>
+    <sheet name="Transferências Com Aprovação" sheetId="4" r:id="rId8"/>
+    <sheet name="Consulta de Aprovações" sheetId="15" r:id="rId9"/>
+    <sheet name="Consulta de Chaves Pix" sheetId="3" r:id="rId10"/>
+    <sheet name="Consulta de Boletos Emitidos" sheetId="8" r:id="rId11"/>
+    <sheet name="Pagamento de Boleto" sheetId="16" r:id="rId12"/>
+    <sheet name="Historico pagamento de Boletos" sheetId="14" r:id="rId13"/>
+    <sheet name="Histórico de Boletos Emitido" sheetId="9" r:id="rId14"/>
+    <sheet name="Consulta de Invoice Emitidas" sheetId="6" r:id="rId15"/>
+    <sheet name="Reversão de invoice" sheetId="13" r:id="rId16"/>
+    <sheet name="Emissão de Boleto" sheetId="10" r:id="rId17"/>
+    <sheet name="Emissão de Invoice Pix" sheetId="5" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Consulta de Boletos Emitidos'!$A$9:$V$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Consulta de Chaves Pix'!$A$9:$J$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Emissão de Invoice Pix'!$A$9:$M$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Extrato!$A$9:$I$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Histórico de Boletos Emitido'!$A$9:$V$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transferências Com Aprovação'!$A$9:$J$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Consulta de Boletos Emitidos'!$A$9:$V$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Consulta de Chaves Pix'!$A$9:$J$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Emissão de Invoice Pix'!$A$9:$M$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Extrato!$A$9:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Histórico de Boletos Emitido'!$A$9:$V$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Transferências Com Aprovação'!$A$9:$J$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
   <si>
     <t>Chave Pix</t>
   </si>
@@ -373,6 +374,24 @@
   <si>
     <t>Stark Bank SDK Excel - v3.0.7</t>
   </si>
+  <si>
+    <t>Tipo Cartão</t>
+  </si>
+  <si>
+    <t>Nome da empresa</t>
+  </si>
+  <si>
+    <t>Nome do Portador</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
 </sst>
 </file>
 
@@ -632,7 +651,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -649,14 +668,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -666,7 +685,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -683,7 +702,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -700,7 +719,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -717,14 +736,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -734,14 +753,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -768,14 +787,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -785,19 +804,87 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -814,46 +901,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -865,24 +918,41 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -899,58 +969,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -967,114 +1088,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1091,7 +1110,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1125,7 +1144,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1142,7 +1161,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1159,19 +1178,53 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1188,58 +1241,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1256,29 +1360,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1290,12 +1377,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1307,12 +1394,29 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1324,24 +1428,41 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1358,109 +1479,58 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1477,63 +1547,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1550,7 +1569,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1567,14 +1586,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1601,7 +1620,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1618,7 +1637,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1635,7 +1654,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1652,7 +1671,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1686,7 +1705,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1703,7 +1722,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1720,14 +1739,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1737,7 +1756,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1788,7 +1807,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1805,14 +1824,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1822,7 +1841,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1839,13 +1858,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1873,13 +1892,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1890,7 +1909,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1907,7 +1926,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1924,7 +1943,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1941,14 +1960,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1975,7 +1994,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1992,7 +2011,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2009,14 +2028,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2026,7 +2045,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2060,7 +2079,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2077,14 +2096,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2094,14 +2113,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -7894,6 +7913,232 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3398AC-EC0F-419C-B3DC-65B3AA806674}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="8" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A9:J9" xr:uid="{8E3398AC-EC0F-419C-B3DC-65B3AA806674}"/>
+  <dataConsolidate/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6501534D-9E8E-453D-B261-17754C05062B}">
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:V9"/>
@@ -8003,8 +8248,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -8023,139 +8393,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1076325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>971550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65868A2-DCF3-4B58-8FC9-A2E1AFA45DB8}">
   <sheetPr codeName="Planilha16"/>
   <dimension ref="A1:E9"/>
@@ -8255,8 +8500,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4">
+        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1314450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8275,89 +8595,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1314450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1"/>
+        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BFFD6B-F025-4A6C-B5AB-3400A77FCA55}">
   <sheetPr codeName="Planilha14"/>
   <dimension ref="A1:XFC9"/>
@@ -8496,52 +8741,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1266825</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2428875</xdr:colOff>
+                <xdr:colOff>1181100</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2514600</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8571,59 +8816,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>2514600</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>1266825</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:colOff>2428875</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6887E50-4B5B-4958-BEC7-9559CB8AE07E}">
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:V9"/>
@@ -8732,52 +8977,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8807,59 +9052,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF22919-66D6-4ABA-AD2C-41EBDF00D9EF}">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:P9"/>
@@ -8947,52 +9192,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1257300</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9022,59 +9267,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1257300</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0072E283-C6BA-465A-B3D9-3E352E0FBDD3}">
   <sheetPr codeName="Planilha13"/>
   <dimension ref="A1:D9"/>
@@ -9164,18 +9409,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10">
+        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1485900</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9184,32 +9429,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10"/>
+        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1495425</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2076450</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9239,43 +9484,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>942975</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1495425</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2076450</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1485900</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9284,14 +9529,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3264FF35-57A0-4672-8235-169B3D48197D}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:V9"/>
@@ -9400,52 +9645,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10">
+        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10"/>
+        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1">
+        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1047750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9475,59 +9720,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3">
+        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1047750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3"/>
+        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4">
+        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4"/>
+        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04BC81C-AF4F-4056-AB23-1893055E9200}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:M9"/>
@@ -9605,52 +9850,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1114425</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9680,52 +9925,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1114425</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9737,7 +9982,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -10257,18 +10502,93 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13">
+        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -10277,124 +10597,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13"/>
+        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6">
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
@@ -10402,7 +10622,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>1048575</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10432,43 +10677,143 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3">
+        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>1048575</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3"/>
+        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2">
+        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -10477,107 +10822,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11"/>
+        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10585,6 +10830,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69372841-2205-4369-ABDD-15A1D3D36AA6}">
+  <sheetPr codeName="Planilha18"/>
+  <dimension ref="A9:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A48F37D-DF27-4112-948E-984B6F5D08FB}">
   <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:L9"/>
@@ -10748,52 +11046,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10823,59 +11121,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7625DE08-E0FE-46F4-9267-5999D70A38A3}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:J9"/>
@@ -11029,8 +11327,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -11049,89 +11422,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11"/>
+        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765C0307-1BBC-4F1B-A539-9EA2DDDB1C4B}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:I9"/>
@@ -11199,8 +11497,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -11219,89 +11592,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E460CD7-AF1F-40AA-B137-8581E0E3D86F}">
   <sheetPr codeName="Planilha17"/>
   <dimension ref="A1:N9"/>
@@ -11509,8 +11807,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -11529,139 +11952,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4"/>
+        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C7D071-5CAD-4E99-8878-39A60CDC47FD}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:J9"/>
@@ -11732,52 +12030,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11807,59 +12105,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4530B2B6-CBE7-4A07-A94E-38245FAD7DC4}">
   <sheetPr codeName="Planilha15"/>
   <dimension ref="A1:M9"/>
@@ -12057,8 +12355,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -12077,308 +12450,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3398AC-EC0F-419C-B3DC-65B3AA806674}">
-  <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="8" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A9:J9" xr:uid="{8E3398AC-EC0F-419C-B3DC-65B3AA806674}"/>
-  <dataConsolidate/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Starkbank-Code\Git-Excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF5461-2B8F-4176-8064-0B070165112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335DEBDF-40F6-4A67-91FE-7F890C569AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId1"/>
@@ -736,6 +736,74 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="397AE3E0A32833341B5399FC391E12926F72C3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2AE3450482C58E244C5291B3282A90F9A78E42"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -748,7 +816,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -761,74 +829,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -855,6 +855,74 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -867,7 +935,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -884,7 +952,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -901,7 +969,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -918,7 +986,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -935,7 +1003,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -948,74 +1016,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1042,6 +1042,74 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1054,7 +1122,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1071,7 +1139,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1088,7 +1156,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1105,7 +1173,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1122,7 +1190,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1135,74 +1203,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1229,6 +1229,74 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="8A681C04683975842508B2258073BEA1C60FD8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1241,7 +1309,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1258,7 +1326,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1275,7 +1343,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1292,7 +1360,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1309,80 +1377,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1416,6 +1416,74 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1428,7 +1496,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1445,7 +1513,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1462,7 +1530,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1479,7 +1547,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1496,7 +1564,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1509,74 +1577,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1603,6 +1603,74 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="3B4BCFBAF3A04D341103B77B32A7026959A7C3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1615,7 +1683,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1632,7 +1700,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1649,7 +1717,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1666,7 +1734,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1683,80 +1751,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1790,7 +1790,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39558BA7531D2E3412138D1638E54A9A444C63"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1807,7 +1807,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1824,6 +1824,74 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39558BA7531D2E3412138D1638E54A9A444C63"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1836,7 +1904,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1853,7 +1921,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1870,80 +1938,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="33A9EADB835964348083B921335A9469D78A13"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1977,7 +1977,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1994,7 +1994,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2011,7 +2011,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2028,6 +2028,74 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -2040,7 +2108,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2057,7 +2125,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2070,40 +2138,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2121,6 +2155,40 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2942,6 +3010,383 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1162050</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16385" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16385"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1162050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16386" name="_ActiveXWrapper2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16386"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1304925</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1076325</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16387" name="_ActiveXWrapper3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16387"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1200150</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>971550</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16388" name="_ActiveXWrapper4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16388"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1323975</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16389" name="_ActiveXWrapper5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16389"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>981075</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16390" name="_ActiveXWrapper6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16390"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1314450</xdr:colOff>
           <xdr:row>4</xdr:row>
@@ -2961,7 +3406,7 @@
                   <a14:compatExt spid="_x0000_s73729"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001200100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001200100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3023,7 +3468,7 @@
                   <a14:compatExt spid="_x0000_s73730"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002200100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002200100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3085,7 +3530,7 @@
                   <a14:compatExt spid="_x0000_s73731"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003200100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003200100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3147,7 +3592,7 @@
                   <a14:compatExt spid="_x0000_s73732"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004200100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004200100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3189,7 +3634,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3214,7 +3659,7 @@
                   <a14:compatExt spid="_x0000_s52225"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3276,7 +3721,7 @@
                   <a14:compatExt spid="_x0000_s52226"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3338,7 +3783,7 @@
                   <a14:compatExt spid="_x0000_s52227"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3400,7 +3845,7 @@
                   <a14:compatExt spid="_x0000_s52228"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3462,7 +3907,7 @@
                   <a14:compatExt spid="_x0000_s52229"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3504,7 +3949,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3529,7 +3974,7 @@
                   <a14:compatExt spid="_x0000_s20481"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3591,7 +4036,7 @@
                   <a14:compatExt spid="_x0000_s20482"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3653,7 +4098,7 @@
                   <a14:compatExt spid="_x0000_s20483"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3715,7 +4160,7 @@
                   <a14:compatExt spid="_x0000_s20484"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3777,7 +4222,7 @@
                   <a14:compatExt spid="_x0000_s20485"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3819,7 +4264,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3844,7 +4289,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3906,7 +4351,7 @@
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3968,7 +4413,7 @@
                   <a14:compatExt spid="_x0000_s8195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4030,7 +4475,7 @@
                   <a14:compatExt spid="_x0000_s8196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4092,7 +4537,7 @@
                   <a14:compatExt spid="_x0000_s8197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4134,7 +4579,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4159,7 +4604,7 @@
                   <a14:compatExt spid="_x0000_s49154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4221,7 +4666,7 @@
                   <a14:compatExt spid="_x0000_s49155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4283,7 +4728,7 @@
                   <a14:compatExt spid="_x0000_s49156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4345,7 +4790,7 @@
                   <a14:compatExt spid="_x0000_s49157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4407,7 +4852,7 @@
                   <a14:compatExt spid="_x0000_s49158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4449,7 +4894,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4474,7 +4919,7 @@
                   <a14:compatExt spid="_x0000_s24577"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000001600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000001600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4536,7 +4981,7 @@
                   <a14:compatExt spid="_x0000_s24578"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4598,7 +5043,7 @@
                   <a14:compatExt spid="_x0000_s24579"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4660,7 +5105,7 @@
                   <a14:compatExt spid="_x0000_s24580"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4722,7 +5167,7 @@
                   <a14:compatExt spid="_x0000_s24582"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000006600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4764,7 +5209,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4789,7 +5234,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000001180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4851,7 +5296,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4913,7 +5358,7 @@
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4975,7 +5420,7 @@
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5037,7 +5482,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5086,6 +5531,259 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95233" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s95233"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC23762-7474-A41B-BC22-49E178CCA567}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95234" name="_ActiveXWrapper2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s95234"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37015C4-A06D-68EC-53FA-CFF19324B7DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95235" name="_ActiveXWrapper3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s95235"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA83130-4156-7DC0-4F2B-1F9373B0BE3C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95237" name="_ActiveXWrapper4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s95237"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4059EE0E-4CFE-449C-6A8E-8674F667D26B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
@@ -5104,7 +5802,7 @@
                   <a14:compatExt spid="_x0000_s37892"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5166,7 +5864,7 @@
                   <a14:compatExt spid="_x0000_s37893"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5228,7 +5926,7 @@
                   <a14:compatExt spid="_x0000_s37894"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5290,7 +5988,7 @@
                   <a14:compatExt spid="_x0000_s37895"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5352,7 +6050,7 @@
                   <a14:compatExt spid="_x0000_s37896"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5394,7 +6092,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5419,7 +6117,7 @@
                   <a14:compatExt spid="_x0000_s28676"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004700000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5481,7 +6179,7 @@
                   <a14:compatExt spid="_x0000_s28677"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005700000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5543,7 +6241,7 @@
                   <a14:compatExt spid="_x0000_s28678"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006700000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5605,7 +6303,7 @@
                   <a14:compatExt spid="_x0000_s28679"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007700000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5647,7 +6345,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5672,7 +6370,7 @@
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5734,7 +6432,7 @@
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5796,7 +6494,7 @@
                   <a14:compatExt spid="_x0000_s10243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5858,7 +6556,7 @@
                   <a14:compatExt spid="_x0000_s10244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5900,7 +6598,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5925,7 +6623,7 @@
                   <a14:compatExt spid="_x0000_s81921"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5987,7 +6685,7 @@
                   <a14:compatExt spid="_x0000_s81922"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6049,7 +6747,7 @@
                   <a14:compatExt spid="_x0000_s81923"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6111,7 +6809,7 @@
                   <a14:compatExt spid="_x0000_s81925"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6173,7 +6871,7 @@
                   <a14:compatExt spid="_x0000_s81926"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6235,7 +6933,7 @@
                   <a14:compatExt spid="_x0000_s81927"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6277,7 +6975,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6302,7 +7000,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6364,7 +7062,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6426,7 +7124,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6488,7 +7186,7 @@
                   <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6550,7 +7248,7 @@
                   <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6592,7 +7290,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6617,7 +7315,7 @@
                   <a14:compatExt spid="_x0000_s59398"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6679,7 +7377,7 @@
                   <a14:compatExt spid="_x0000_s59399"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6741,7 +7439,7 @@
                   <a14:compatExt spid="_x0000_s59400"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6803,7 +7501,7 @@
                   <a14:compatExt spid="_x0000_s59401"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6845,7 +7543,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6870,7 +7568,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6932,7 +7630,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6994,7 +7692,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7056,7 +7754,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000040C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7118,7 +7816,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000050C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7180,384 +7878,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000060C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1162050</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16385" name="_ActiveXWrapper1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16385"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000001400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1162050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16386" name="_ActiveXWrapper2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16386"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1304925</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1076325</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16387" name="_ActiveXWrapper3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16387"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1200150</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16388" name="_ActiveXWrapper4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16388"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1323975</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16389" name="_ActiveXWrapper5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16389"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>981075</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16390" name="_ActiveXWrapper6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16390"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10830,19 +11151,125 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69372841-2205-4369-ABDD-15A1D3D36AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69372841-2205-4369-ABDD-15A1D3D36AA6}">
   <sheetPr codeName="Planilha18"/>
-  <dimension ref="A9:J9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>104</v>
@@ -10879,6 +11306,110 @@
   <dataConsolidate/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95237" r:id="rId4" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95237" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95235" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95235" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95234" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95234" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95233" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95233" r:id="rId10" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
@@ -10889,7 +11420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Starkbank-Code\Git-Excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0936DBA-B323-40F6-9A27-44D018DB9561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58709251-EDB9-469B-A4E8-A0A6B9DBAE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId1"/>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">        Nome do Sacador Avalista</t>
   </si>
   <si>
-    <t>Stark Bank SDK Excel - v3.0.7</t>
+    <t>Stark Bank SDK Excel - v3.0.8</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -649,14 +649,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -666,7 +666,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -683,7 +683,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -700,7 +700,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -717,14 +717,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -734,14 +734,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -768,14 +768,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -785,19 +785,87 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -814,46 +882,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -865,24 +899,41 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -899,58 +950,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -967,114 +1069,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1091,7 +1091,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1125,7 +1125,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1142,7 +1142,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1159,19 +1159,53 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1188,58 +1222,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1256,29 +1341,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1290,12 +1358,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1307,12 +1375,29 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1324,24 +1409,41 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1358,109 +1460,58 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1477,63 +1528,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1550,7 +1550,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1567,14 +1567,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1601,7 +1601,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1618,7 +1618,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1635,7 +1635,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1652,7 +1652,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1686,7 +1686,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1703,7 +1703,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1720,14 +1720,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1737,7 +1737,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1788,7 +1788,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1805,14 +1805,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1822,7 +1822,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1839,13 +1839,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1873,13 +1873,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1890,7 +1890,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1907,7 +1907,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1924,7 +1924,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1941,14 +1941,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1975,7 +1975,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1992,7 +1992,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2009,14 +2009,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2026,7 +2026,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2060,7 +2060,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2077,14 +2077,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2094,14 +2094,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -8003,8 +8003,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -8023,132 +8148,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1076325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>971550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8255,8 +8255,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4">
+        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1314450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8275,82 +8350,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1314450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1"/>
+        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8496,52 +8496,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1266825</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2428875</xdr:colOff>
+                <xdr:colOff>1181100</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2514600</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8571,52 +8571,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>2514600</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>1266825</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:colOff>2428875</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8732,52 +8732,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8807,52 +8807,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8947,52 +8947,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1257300</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9022,52 +9022,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1257300</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9164,18 +9164,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10">
+        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1485900</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9184,32 +9184,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10"/>
+        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1495425</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2076450</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9239,43 +9239,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>942975</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1495425</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2076450</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1485900</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9284,7 +9284,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9400,52 +9400,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10">
+        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10"/>
+        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1">
+        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1047750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9475,52 +9475,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3">
+        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1047750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3"/>
+        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4">
+        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4"/>
+        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9605,52 +9605,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1114425</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9680,52 +9680,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1114425</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9738,7 +9738,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10257,18 +10257,93 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13">
+        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -10277,124 +10352,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13"/>
+        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6">
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
@@ -10402,7 +10377,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>1048575</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10432,43 +10432,143 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3">
+        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>1048575</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3"/>
+        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2">
+        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -10477,107 +10577,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11"/>
+        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10748,52 +10748,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10823,52 +10823,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11029,8 +11029,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -11049,82 +11124,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11"/>
+        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11199,8 +11199,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -11219,82 +11294,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11509,8 +11509,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -11529,132 +11654,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4"/>
+        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11732,52 +11732,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11807,52 +11807,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12057,8 +12057,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -12077,82 +12152,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12233,8 +12233,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -12253,132 +12378,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Starkbank-Code\Git-Excel\DotNetExcel\StarkBankExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Documents\deploy-cartshop-hoje\sdk-excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335DEBDF-40F6-4A67-91FE-7F890C569AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE42705-EB0C-497A-ACD6-C390A92E7F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
   <si>
     <t>Chave Pix</t>
   </si>
@@ -392,6 +392,15 @@
   <si>
     <t>UF</t>
   </si>
+  <si>
+    <t>Ex: StarkBank</t>
+  </si>
+  <si>
+    <t>Ex: (11) 99999-9999</t>
+  </si>
+  <si>
+    <t>Ex: 20018-183</t>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +414,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ \-\ hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +465,13 @@
       <name val="Miriam"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -516,7 +532,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -610,6 +626,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{E3DD1B30-853B-4C36-AE63-B9CA15539112}"/>
@@ -651,7 +669,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -668,14 +686,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -685,7 +703,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -702,7 +720,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -719,7 +737,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -736,19 +754,36 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2AE3450482C58E244C5291B3282A90F9A78E42"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -765,36 +800,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2AE3450482C58E244C5291B3282A90F9A78E42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -804,14 +822,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -821,14 +839,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -838,7 +856,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -872,14 +890,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -889,19 +907,70 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -918,12 +987,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -935,29 +1004,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -969,7 +1021,41 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -986,75 +1072,92 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7C9BBDE4E751B574F557BC077FC280926F0487"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1071,97 +1174,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7C9BBDE4E751B574F557BC077FC280926F0487"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1178,7 +1196,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1212,14 +1230,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1229,7 +1247,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1246,7 +1264,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1263,19 +1281,36 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8A681C04683975842508B2258073BEA1C60FD8"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1292,41 +1327,126 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8A681C04683975842508B2258073BEA1C60FD8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1343,12 +1463,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="64B7B760262CDD643836A79A641DDB36424F16"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1360,12 +1480,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1377,12 +1497,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1394,58 +1514,41 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1462,92 +1565,75 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="64B7B760262CDD643836A79A641DDB36424F16"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1564,80 +1650,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1654,7 +1672,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1688,7 +1706,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1705,7 +1723,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1722,7 +1740,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1739,7 +1757,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1790,7 +1808,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1807,7 +1825,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1824,14 +1842,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1841,7 +1859,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1875,7 +1893,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1892,14 +1910,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1909,7 +1927,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1926,13 +1944,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1960,14 +1978,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1977,13 +1995,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1994,7 +2012,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2011,7 +2029,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2028,7 +2046,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2062,7 +2080,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2079,7 +2097,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2096,14 +2114,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2113,7 +2131,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2147,14 +2165,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2164,7 +2182,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2181,14 +2199,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -5549,7 +5567,7 @@
                   <a14:compatExt spid="_x0000_s95233"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC23762-7474-A41B-BC22-49E178CCA567}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5611,7 +5629,7 @@
                   <a14:compatExt spid="_x0000_s95234"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37015C4-A06D-68EC-53FA-CFF19324B7DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5673,7 +5691,7 @@
                   <a14:compatExt spid="_x0000_s95235"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA83130-4156-7DC0-4F2B-1F9373B0BE3C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5735,7 +5753,7 @@
                   <a14:compatExt spid="_x0000_s95237"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4059EE0E-4CFE-449C-6A8E-8674F667D26B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8307,8 +8325,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8327,132 +8470,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1"/>
+        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8569,8 +8587,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8589,132 +8732,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>971550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1076325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8821,8 +8839,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1">
+        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8841,82 +8934,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4"/>
+        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9062,52 +9080,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>1266825</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:colOff>2428875</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>2514600</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9137,52 +9155,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2514600</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1266825</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2428875</xdr:colOff>
+                <xdr:colOff>1181100</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9298,52 +9316,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9373,52 +9391,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9513,52 +9531,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1257300</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9588,52 +9606,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1257300</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9730,18 +9748,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1485900</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9750,32 +9768,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>942975</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1495425</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2076450</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9805,43 +9823,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1495425</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2076450</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10">
+        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1485900</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9850,7 +9868,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10"/>
+        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9966,52 +9984,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4"/>
+        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3">
+        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1047750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3"/>
+        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10041,52 +10059,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1">
+        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1047750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10">
+        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10"/>
+        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10171,52 +10189,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1114425</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10246,52 +10264,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1114425</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10823,18 +10841,143 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11">
+        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>16</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -10843,132 +10986,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>1048575</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
+        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10998,18 +11016,118 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5">
+        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>1048575</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>16</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -11018,124 +11136,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5"/>
+        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13">
+        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
@@ -11143,7 +11161,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13"/>
+        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11153,10 +11171,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69372841-2205-4369-ABDD-15A1D3D36AA6}">
   <sheetPr codeName="Planilha18"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11302,8 +11320,25 @@
         <v>53</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576" xr:uid="{8815FBF2-F8A5-45D7-A39C-8F42D14F23D4}">
+      <formula1>"Cartão Stark Bank Branco"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11311,8 +11346,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95237" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="95233" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95233" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95234" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95234" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95235" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95235" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95237" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -11331,82 +11441,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95237" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95235" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95235" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95234" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95234" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95233" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95233" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="95237" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11577,52 +11612,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11652,52 +11687,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11858,8 +11893,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11">
+        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -11878,82 +11988,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12028,8 +12063,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -12048,82 +12158,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12338,8 +12373,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -12358,132 +12518,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12561,52 +12596,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12636,52 +12671,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12886,8 +12921,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -12906,82 +13016,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Documents\deploy-cartshop-hoje\sdk-excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE42705-EB0C-497A-ACD6-C390A92E7F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B759197-E2E7-41B4-962B-ABC3A6720429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -620,14 +620,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{E3DD1B30-853B-4C36-AE63-B9CA15539112}"/>
@@ -669,7 +668,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -686,14 +685,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -703,7 +702,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -720,7 +719,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -737,7 +736,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -754,7 +753,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6BFC21A776750A64A676B05D6ACABCB02B86D6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -771,14 +770,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2AE3450482C58E244C5291B3282A90F9A78E42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -805,7 +804,109 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2AE3450482C58E244C5291B3282A90F9A78E42"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -817,7 +918,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -834,114 +935,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -975,7 +974,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -992,7 +991,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1009,7 +1008,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1043,7 +1042,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1060,7 +1059,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1077,14 +1076,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7C9BBDE4E751B574F557BC077FC280926F0487"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1094,14 +1093,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1111,14 +1110,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1145,14 +1144,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1162,19 +1161,121 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7C9BBDE4E751B574F557BC077FC280926F0487"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32D5429B8373DD34ED03A9043941F439C19723"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1191,121 +1292,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32D5429B8373DD34ED03A9043941F439C19723"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8A681C04683975842508B2258073BEA1C60FD8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1332,14 +1331,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8A681C04683975842508B2258073BEA1C60FD8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1349,14 +1348,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1366,7 +1365,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1383,7 +1382,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1417,14 +1416,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1434,7 +1433,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1451,7 +1450,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1468,14 +1467,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="64B7B760262CDD643836A79A641DDB36424F16"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1485,7 +1484,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1502,7 +1501,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1536,7 +1535,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1553,7 +1552,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1570,14 +1569,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="64B7B760262CDD643836A79A641DDB36424F16"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1587,14 +1586,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1604,14 +1603,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1638,19 +1637,104 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3B4BCFBAF3A04D341103B77B32A7026959A7C3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1667,97 +1751,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3B4BCFBAF3A04D341103B77B32A7026959A7C3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1774,7 +1773,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1808,7 +1807,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1825,7 +1824,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1842,7 +1841,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1859,7 +1858,24 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1871,7 +1887,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1888,12 +1904,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1905,24 +1921,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33A9EADB835964348083B921335A9469D78A13"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1939,12 +2040,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1956,12 +2057,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33A9EADB835964348083B921335A9469D78A13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1973,46 +2074,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2024,7 +2091,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2041,12 +2125,29 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2058,12 +2159,29 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2075,58 +2193,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2143,70 +2210,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -5754,6 +5770,68 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005740100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95238" name="_ActiveXWrapper5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s95238"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327028B7-7221-072C-4E2C-E2723D880DA8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8325,8 +8403,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -8345,132 +8548,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8587,8 +8665,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -8607,132 +8810,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1076325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>971550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8839,8 +8917,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4">
+        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1314450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8859,82 +9012,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1314450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1"/>
+        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9080,52 +9158,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1266825</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2428875</xdr:colOff>
+                <xdr:colOff>1181100</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2514600</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9155,52 +9233,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>2514600</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>1266825</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:colOff>2428875</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9316,52 +9394,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9391,52 +9469,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9531,52 +9609,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1257300</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9606,52 +9684,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1257300</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9748,18 +9826,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10">
+        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1485900</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9768,32 +9846,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10"/>
+        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1495425</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2076450</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9823,43 +9901,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>942975</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1495425</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2076450</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1485900</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9868,7 +9946,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9984,52 +10062,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10">
+        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10"/>
+        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1">
+        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1047750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10059,52 +10137,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3">
+        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1047750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3"/>
+        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4">
+        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4"/>
+        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10189,52 +10267,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1114425</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10264,52 +10342,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1114425</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10332,28 +10410,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -10543,32 +10621,32 @@
       <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -10637,30 +10715,30 @@
       <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -10729,30 +10807,30 @@
       <c r="T17" s="17"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
@@ -10841,18 +10919,93 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13">
+        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -10861,124 +11014,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13"/>
+        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6">
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
@@ -10986,7 +11039,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>1048575</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11016,43 +11094,143 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3">
+        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>1048575</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3"/>
+        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2">
+        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -11061,107 +11239,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11"/>
+        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11173,8 +11251,8 @@
   <sheetPr codeName="Planilha18"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11321,14 +11399,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -11346,52 +11423,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95233" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="95238" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95233" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="95238" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95234" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="95237" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95234" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="95237" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11421,27 +11498,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95237" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="95234" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95237" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="95234" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95233" r:id="rId12" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95233" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11612,52 +11714,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11687,52 +11789,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11893,8 +11995,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -11913,82 +12090,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11"/>
+        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12063,8 +12165,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -12083,82 +12260,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12373,8 +12475,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -12393,132 +12620,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4"/>
+        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12596,52 +12698,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12671,52 +12773,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12921,8 +13023,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -12941,82 +13118,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Documents\deploy-cartshop-hoje\sdk-excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B759197-E2E7-41B4-962B-ABC3A6720429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3CF4F-E6B8-46AD-9AFD-A5598032F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
@@ -753,23 +753,6 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6BFC21A776750A64A676B05D6ACABCB02B86D6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -782,7 +765,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -799,7 +782,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -816,7 +799,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -833,7 +816,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -846,6 +829,23 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -872,23 +872,6 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -901,7 +884,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -918,7 +901,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -935,7 +918,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -952,7 +935,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -969,7 +952,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -986,7 +969,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1003,7 +986,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1020,12 +1003,29 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1059,7 +1059,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1076,23 +1076,6 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1105,7 +1088,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1122,7 +1105,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1139,7 +1122,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1156,7 +1139,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1173,7 +1156,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1190,7 +1173,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1207,12 +1190,29 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32D5429B8373DD34ED03A9043941F439C19723"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1246,7 +1246,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32D5429B8373DD34ED03A9043941F439C19723"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1263,7 +1263,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1280,23 +1280,6 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1309,7 +1292,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1326,7 +1309,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1343,7 +1326,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1360,7 +1343,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1377,7 +1360,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1394,12 +1377,29 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1433,23 +1433,6 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1462,7 +1445,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1479,7 +1462,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1496,7 +1479,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1513,7 +1496,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1530,7 +1513,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1547,7 +1530,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1564,7 +1547,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1581,7 +1564,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1594,6 +1577,23 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1620,23 +1620,6 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1649,7 +1632,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1666,7 +1649,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1683,7 +1666,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1700,7 +1683,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1717,7 +1700,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1734,7 +1717,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1751,7 +1734,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1768,12 +1751,29 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1807,7 +1807,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1824,7 +1824,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1841,23 +1841,6 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1870,7 +1853,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1887,7 +1870,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1904,7 +1887,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1921,7 +1904,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1938,7 +1921,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1955,7 +1938,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1967,6 +1950,23 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33A9EADB835964348083B921335A9469D78A13"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1994,7 +1994,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33A9EADB835964348083B921335A9469D78A13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2011,7 +2011,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2028,7 +2028,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2045,7 +2045,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2062,7 +2062,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2079,7 +2079,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2096,7 +2096,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2113,23 +2113,6 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -2142,12 +2125,29 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2181,7 +2181,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2194,23 +2194,6 @@
 </file>
 
 <file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -5770,68 +5753,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005740100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95238" name="_ActiveXWrapper5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s95238"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327028B7-7221-072C-4E2C-E2723D880DA8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11252,7 +11173,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11423,33 +11344,8 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95238" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="95237" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95238" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95237" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -11468,13 +11364,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95237" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="95237" r:id="rId4" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95235" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="95235" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -11493,13 +11389,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95235" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="95235" r:id="rId6" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95234" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="95234" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -11518,13 +11414,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95234" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="95234" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95233" r:id="rId12" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="95233" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -11543,7 +11439,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95233" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="95233" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Documents\deploy-cartshop-hoje\sdk-excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3CF4F-E6B8-46AD-9AFD-A5598032F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F992332A-54AF-4F04-B74F-301DE6515C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId1"/>
@@ -668,7 +668,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23A4525A1295E524FB7284BA2EA2DC8317EF42"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -685,24 +685,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -714,12 +697,29 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -736,7 +736,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -753,14 +753,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -770,14 +770,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="397AE3E0A32833341B5399FC391E12926F72C3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -804,19 +804,121 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="397AE3E0A32833341B5399FC391E12926F72C3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -833,114 +935,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -974,7 +974,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -991,13 +991,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1008,7 +1008,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1042,7 +1042,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1059,7 +1059,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1076,14 +1076,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1093,14 +1093,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7C9BBDE4E751B574F557BC077FC280926F0487"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1110,14 +1110,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1144,14 +1144,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1161,19 +1161,121 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7C9BBDE4E751B574F557BC077FC280926F0487"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32D5429B8373DD34ED03A9043941F439C19723"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1190,121 +1292,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32D5429B8373DD34ED03A9043941F439C19723"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1331,14 +1331,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1348,14 +1348,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1365,14 +1365,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1382,14 +1382,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1416,14 +1416,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1433,7 +1433,41 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1445,46 +1479,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="64B7B760262CDD643836A79A641DDB36424F16"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1501,7 +1501,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1535,7 +1535,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1552,7 +1552,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="64B7B760262CDD643836A79A641DDB36424F16"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1569,14 +1569,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1586,14 +1586,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1603,13 +1603,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1637,19 +1637,104 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3B4BCFBAF3A04D341103B77B32A7026959A7C3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1666,12 +1751,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1683,12 +1768,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3B4BCFBAF3A04D341103B77B32A7026959A7C3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1700,12 +1785,29 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1717,12 +1819,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1734,7 +1836,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1751,12 +1853,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1768,12 +1870,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1785,7 +1887,92 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39558BA7531D2E3412138D1638E54A9A444C63"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1802,12 +1989,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33A9EADB835964348083B921335A9469D78A13"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1819,109 +2006,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39558BA7531D2E3412138D1638E54A9A444C63"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1938,29 +2040,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33A9EADB835964348083B921335A9469D78A13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1972,29 +2057,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2006,12 +2074,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2023,7 +2091,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2040,12 +2125,29 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2057,12 +2159,29 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2074,58 +2193,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2142,70 +2210,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2980,6 +2997,68 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="_ActiveXWrapper14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3F1902-F5CE-C7E8-3EFC-6C013CB018DE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8324,8 +8403,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8344,132 +8548,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1"/>
+        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8586,8 +8665,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8606,132 +8810,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>971550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1076325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8838,8 +8917,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1">
+        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8858,82 +9012,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4"/>
+        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9079,52 +9158,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>1266825</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:colOff>2428875</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>2514600</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9154,52 +9233,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2514600</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1266825</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2428875</xdr:colOff>
+                <xdr:colOff>1181100</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9315,52 +9394,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9390,52 +9469,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9530,52 +9609,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1257300</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9605,52 +9684,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1257300</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9747,18 +9826,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1485900</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9767,32 +9846,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>942975</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1495425</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2076450</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9822,43 +9901,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1495425</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2076450</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10">
+        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1485900</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9867,7 +9946,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10"/>
+        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9983,52 +10062,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4"/>
+        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3">
+        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1047750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3"/>
+        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10058,52 +10137,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1">
+        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1047750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10">
+        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10"/>
+        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10188,52 +10267,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1114425</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10263,52 +10342,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1114425</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10320,8 +10399,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10840,8 +10919,333 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11">
+        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper14">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId8" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId8" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId10" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId10" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId12" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId12" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId14" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId16" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId16" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId18" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>1048575</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId18" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId20" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>1048575</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId20" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId22" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId22" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId24" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId24" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId26" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId26" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId28" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId28" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId30" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -10860,307 +11264,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>1048575</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId16" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>1048575</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId16" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13"/>
+        <control shapeId="1044" r:id="rId30" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11172,7 +11276,7 @@
   <sheetPr codeName="Planilha18"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -11344,8 +11448,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95237" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="95233" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95233" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95234" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95234" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95235" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95235" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95237" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -11364,82 +11543,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95237" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95235" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95235" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95234" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95234" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95233" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95233" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="95237" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11610,52 +11714,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11685,52 +11789,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11891,8 +11995,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11">
+        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -11911,82 +12090,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12061,8 +12165,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -12081,82 +12260,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12371,8 +12475,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -12391,132 +12620,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12594,52 +12698,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12669,52 +12773,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12919,8 +13023,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -12939,82 +13118,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -5,39 +5,40 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Starkbank-Code\Git-Excel\DotNetExcel\StarkBankExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Documents\deploy-cartshop-hoje\sdk-excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58709251-EDB9-469B-A4E8-A0A6B9DBAE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975E942-8B2F-4B25-B4A9-E6A753ADCB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Principal" sheetId="1" r:id="rId2"/>
-    <sheet name="Compras Cartão" sheetId="12" r:id="rId3"/>
-    <sheet name="Extrato Cartão" sheetId="11" r:id="rId4"/>
-    <sheet name="Extrato" sheetId="7" r:id="rId5"/>
-    <sheet name="Consulta de Transferencias" sheetId="17" r:id="rId6"/>
-    <sheet name="Transferências Com Aprovação" sheetId="4" r:id="rId7"/>
-    <sheet name="Consulta de Aprovações" sheetId="15" r:id="rId8"/>
-    <sheet name="Consulta de Chaves Pix" sheetId="3" r:id="rId9"/>
-    <sheet name="Consulta de Boletos Emitidos" sheetId="8" r:id="rId10"/>
-    <sheet name="Pagamento de Boleto" sheetId="16" r:id="rId11"/>
-    <sheet name="Historico pagamento de Boletos" sheetId="14" r:id="rId12"/>
-    <sheet name="Histórico de Boletos Emitido" sheetId="9" r:id="rId13"/>
-    <sheet name="Consulta de Invoice Emitidas" sheetId="6" r:id="rId14"/>
-    <sheet name="Reversão de invoice" sheetId="13" r:id="rId15"/>
-    <sheet name="Emissão de Boleto" sheetId="10" r:id="rId16"/>
-    <sheet name="Emissão de Invoice Pix" sheetId="5" r:id="rId17"/>
+    <sheet name="Solicitações de Cartões" sheetId="18" r:id="rId3"/>
+    <sheet name="Compras Cartão" sheetId="12" r:id="rId4"/>
+    <sheet name="Extrato Cartão" sheetId="11" r:id="rId5"/>
+    <sheet name="Extrato" sheetId="7" r:id="rId6"/>
+    <sheet name="Consulta de Transferencias" sheetId="17" r:id="rId7"/>
+    <sheet name="Transferências Com Aprovação" sheetId="4" r:id="rId8"/>
+    <sheet name="Consulta de Aprovações" sheetId="15" r:id="rId9"/>
+    <sheet name="Consulta de Chaves Pix" sheetId="3" r:id="rId10"/>
+    <sheet name="Consulta de Boletos Emitidos" sheetId="8" r:id="rId11"/>
+    <sheet name="Pagamento de Boleto" sheetId="16" r:id="rId12"/>
+    <sheet name="Historico pagamento de Boletos" sheetId="14" r:id="rId13"/>
+    <sheet name="Histórico de Boletos Emitido" sheetId="9" r:id="rId14"/>
+    <sheet name="Consulta de Invoice Emitidas" sheetId="6" r:id="rId15"/>
+    <sheet name="Reversão de invoice" sheetId="13" r:id="rId16"/>
+    <sheet name="Emissão de Boleto" sheetId="10" r:id="rId17"/>
+    <sheet name="Emissão de Invoice Pix" sheetId="5" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Consulta de Boletos Emitidos'!$A$9:$V$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Consulta de Chaves Pix'!$A$9:$J$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Emissão de Invoice Pix'!$A$9:$M$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Extrato!$A$9:$I$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Histórico de Boletos Emitido'!$A$9:$V$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transferências Com Aprovação'!$A$9:$J$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Consulta de Boletos Emitidos'!$A$9:$V$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Consulta de Chaves Pix'!$A$9:$J$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Emissão de Invoice Pix'!$A$9:$M$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Extrato!$A$9:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Histórico de Boletos Emitido'!$A$9:$V$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Transferências Com Aprovação'!$A$9:$J$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
   <si>
     <t>Chave Pix</t>
   </si>
@@ -371,7 +372,34 @@
     <t xml:space="preserve">        Nome do Sacador Avalista</t>
   </si>
   <si>
-    <t>Stark Bank SDK Excel - v3.0.8</t>
+    <t>Tipo Cartão</t>
+  </si>
+  <si>
+    <t>Nome da empresa</t>
+  </si>
+  <si>
+    <t>Nome do Portador</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>Ex: StarkBank</t>
+  </si>
+  <si>
+    <t>Ex: (11) 99999-9999</t>
+  </si>
+  <si>
+    <t>Ex: 20018-183</t>
+  </si>
+  <si>
+    <t>Stark Bank SDK Excel - v3.0.9</t>
   </si>
 </sst>
 </file>
@@ -386,7 +414,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ \-\ hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +465,13 @@
       <name val="Miriam"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -497,7 +532,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -585,6 +620,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,7 +668,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23A4525A1295E524FB7284BA2EA2DC8317EF42"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -649,24 +685,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -678,7 +697,347 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2AE3450482C58E244C5291B3282A90F9A78E42"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="397AE3E0A32833341B5399FC391E12926F72C3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -695,211 +1054,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -916,12 +1071,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -929,125 +1084,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1074,7 +1110,92 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1086,7 +1207,58 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32D5429B8373DD34ED03A9043941F439C19723"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1103,12 +1275,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32D5429B8373DD34ED03A9043941F439C19723"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1120,58 +1292,41 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8A681C04683975842508B2258073BEA1C60FD8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1188,138 +1343,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8A681C04683975842508B2258073BEA1C60FD8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1346,14 +1382,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1363,7 +1399,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1380,14 +1416,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1397,7 +1433,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1414,7 +1450,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1431,14 +1467,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1465,19 +1501,138 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1494,41 +1649,92 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3B4BCFBAF3A04D341103B77B32A7026959A7C3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1545,12 +1751,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1562,7 +1768,398 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39558BA7531D2E3412138D1638E54A9A444C63"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BD6BA4211BC3E14DAF185961A2B376D133421"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="33A9EADB835964348083B921335A9469D78A13"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1579,12 +2176,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3B4BCFBAF3A04D341103B77B32A7026959A7C3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1596,432 +2193,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BD6BA4211BC3E14DAF185961A2B376D133421"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39558BA7531D2E3412138D1638E54A9A444C63"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="33A9EADB835964348083B921335A9469D78A13"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2038,70 +2210,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2914,10 +3035,449 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="_ActiveXWrapper14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1162050</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16385" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16385"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1162050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16386" name="_ActiveXWrapper2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16386"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1304925</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1076325</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16387" name="_ActiveXWrapper3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16387"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1200150</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>971550</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16388" name="_ActiveXWrapper4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16388"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1323975</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16389" name="_ActiveXWrapper5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16389"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>981075</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16390" name="_ActiveXWrapper6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16390"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2942,7 +3502,7 @@
                   <a14:compatExt spid="_x0000_s73729"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001200100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001200100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3004,7 +3564,7 @@
                   <a14:compatExt spid="_x0000_s73730"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002200100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002200100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3066,7 +3626,7 @@
                   <a14:compatExt spid="_x0000_s73731"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003200100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003200100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3128,7 +3688,7 @@
                   <a14:compatExt spid="_x0000_s73732"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004200100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004200100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3170,7 +3730,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3195,7 +3755,7 @@
                   <a14:compatExt spid="_x0000_s52225"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3257,7 +3817,7 @@
                   <a14:compatExt spid="_x0000_s52226"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3319,7 +3879,7 @@
                   <a14:compatExt spid="_x0000_s52227"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3381,7 +3941,7 @@
                   <a14:compatExt spid="_x0000_s52228"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3443,7 +4003,7 @@
                   <a14:compatExt spid="_x0000_s52229"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005CC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005CC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3485,7 +4045,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3510,7 +4070,7 @@
                   <a14:compatExt spid="_x0000_s20481"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3572,7 +4132,7 @@
                   <a14:compatExt spid="_x0000_s20482"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3634,7 +4194,7 @@
                   <a14:compatExt spid="_x0000_s20483"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3696,7 +4256,7 @@
                   <a14:compatExt spid="_x0000_s20484"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3758,7 +4318,7 @@
                   <a14:compatExt spid="_x0000_s20485"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3800,7 +4360,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3825,7 +4385,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3887,7 +4447,7 @@
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3949,7 +4509,7 @@
                   <a14:compatExt spid="_x0000_s8195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4011,7 +4571,7 @@
                   <a14:compatExt spid="_x0000_s8196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4073,7 +4633,7 @@
                   <a14:compatExt spid="_x0000_s8197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4115,7 +4675,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4140,7 +4700,7 @@
                   <a14:compatExt spid="_x0000_s49154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4202,7 +4762,7 @@
                   <a14:compatExt spid="_x0000_s49155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4264,7 +4824,7 @@
                   <a14:compatExt spid="_x0000_s49156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4326,7 +4886,7 @@
                   <a14:compatExt spid="_x0000_s49157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4388,7 +4948,7 @@
                   <a14:compatExt spid="_x0000_s49158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006C00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006C00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4430,7 +4990,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4455,7 +5015,7 @@
                   <a14:compatExt spid="_x0000_s24577"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000001600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000001600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4517,7 +5077,7 @@
                   <a14:compatExt spid="_x0000_s24578"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4579,7 +5139,7 @@
                   <a14:compatExt spid="_x0000_s24579"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4641,7 +5201,7 @@
                   <a14:compatExt spid="_x0000_s24580"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4703,7 +5263,7 @@
                   <a14:compatExt spid="_x0000_s24582"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006600000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000006600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4745,7 +5305,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4770,7 +5330,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000001180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4832,7 +5392,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4894,7 +5454,7 @@
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4956,7 +5516,7 @@
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5018,7 +5578,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5067,6 +5627,259 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95233" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s95233"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001740100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95234" name="_ActiveXWrapper2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s95234"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002740100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95235" name="_ActiveXWrapper3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s95235"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003740100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95237" name="_ActiveXWrapper4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s95237"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005740100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
@@ -5085,7 +5898,7 @@
                   <a14:compatExt spid="_x0000_s37892"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5147,7 +5960,7 @@
                   <a14:compatExt spid="_x0000_s37893"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5209,7 +6022,7 @@
                   <a14:compatExt spid="_x0000_s37894"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5271,7 +6084,7 @@
                   <a14:compatExt spid="_x0000_s37895"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5333,7 +6146,7 @@
                   <a14:compatExt spid="_x0000_s37896"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008940000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5375,7 +6188,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5400,7 +6213,7 @@
                   <a14:compatExt spid="_x0000_s28676"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004700000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5462,7 +6275,7 @@
                   <a14:compatExt spid="_x0000_s28677"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005700000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5524,7 +6337,7 @@
                   <a14:compatExt spid="_x0000_s28678"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006700000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5586,7 +6399,7 @@
                   <a14:compatExt spid="_x0000_s28679"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007700000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5628,7 +6441,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5653,7 +6466,7 @@
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5715,7 +6528,7 @@
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5777,7 +6590,7 @@
                   <a14:compatExt spid="_x0000_s10243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5839,7 +6652,7 @@
                   <a14:compatExt spid="_x0000_s10244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5881,7 +6694,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5906,7 +6719,7 @@
                   <a14:compatExt spid="_x0000_s81921"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5968,7 +6781,7 @@
                   <a14:compatExt spid="_x0000_s81922"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6030,7 +6843,7 @@
                   <a14:compatExt spid="_x0000_s81923"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6092,7 +6905,7 @@
                   <a14:compatExt spid="_x0000_s81925"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6154,7 +6967,7 @@
                   <a14:compatExt spid="_x0000_s81926"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6216,7 +7029,7 @@
                   <a14:compatExt spid="_x0000_s81927"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007400100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007400100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6258,7 +7071,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6283,7 +7096,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6345,7 +7158,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6407,7 +7220,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6469,7 +7282,7 @@
                   <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6531,7 +7344,7 @@
                   <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6573,7 +7386,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6598,7 +7411,7 @@
                   <a14:compatExt spid="_x0000_s59398"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6660,7 +7473,7 @@
                   <a14:compatExt spid="_x0000_s59399"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6722,7 +7535,7 @@
                   <a14:compatExt spid="_x0000_s59400"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6784,7 +7597,7 @@
                   <a14:compatExt spid="_x0000_s59401"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6826,7 +7639,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6851,7 +7664,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6913,7 +7726,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6975,7 +7788,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7037,7 +7850,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000040C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7099,7 +7912,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000050C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7161,384 +7974,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000060C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1162050</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16385" name="_ActiveXWrapper1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16385"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000001400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1162050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16386" name="_ActiveXWrapper2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16386"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1304925</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1076325</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16387" name="_ActiveXWrapper3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16387"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1200150</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16388" name="_ActiveXWrapper4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16388"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1323975</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16389" name="_ActiveXWrapper5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16389"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005400000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>981075</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16390" name="_ActiveXWrapper6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16390"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7894,6 +8330,232 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3398AC-EC0F-419C-B3DC-65B3AA806674}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="8" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A9:J9" xr:uid="{8E3398AC-EC0F-419C-B3DC-65B3AA806674}"/>
+  <dataConsolidate/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6501534D-9E8E-453D-B261-17754C05062B}">
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:V9"/>
@@ -8003,8 +8665,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8023,139 +8810,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>971550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1076325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65868A2-DCF3-4B58-8FC9-A2E1AFA45DB8}">
   <sheetPr codeName="Planilha16"/>
   <dimension ref="A1:E9"/>
@@ -8255,8 +8917,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1">
+        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8275,89 +9012,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4"/>
+        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BFFD6B-F025-4A6C-B5AB-3400A77FCA55}">
   <sheetPr codeName="Planilha14"/>
   <dimension ref="A1:XFC9"/>
@@ -8496,52 +9158,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>1266825</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:colOff>2428875</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>2514600</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8571,59 +9233,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2514600</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1266825</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2428875</xdr:colOff>
+                <xdr:colOff>1181100</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6887E50-4B5B-4958-BEC7-9559CB8AE07E}">
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:V9"/>
@@ -8732,52 +9394,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8807,59 +9469,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF22919-66D6-4ABA-AD2C-41EBDF00D9EF}">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:P9"/>
@@ -8947,52 +9609,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1257300</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9022,59 +9684,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1257300</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0072E283-C6BA-465A-B3D9-3E352E0FBDD3}">
   <sheetPr codeName="Planilha13"/>
   <dimension ref="A1:D9"/>
@@ -9164,18 +9826,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1485900</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9184,32 +9846,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>942975</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1495425</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2076450</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9239,43 +9901,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1495425</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2076450</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10">
+        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1485900</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9284,14 +9946,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10"/>
+        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3264FF35-57A0-4672-8235-169B3D48197D}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:V9"/>
@@ -9400,52 +10062,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4"/>
+        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3">
+        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1047750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3"/>
+        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9475,59 +10137,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1">
+        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1047750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10">
+        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10"/>
+        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04BC81C-AF4F-4056-AB23-1893055E9200}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:M9"/>
@@ -9605,52 +10267,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1114425</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9680,52 +10342,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1114425</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9738,7 +10400,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -9748,28 +10410,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="A1" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -9959,32 +10621,32 @@
       <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -10053,30 +10715,30 @@
       <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -10145,30 +10807,30 @@
       <c r="T17" s="17"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
@@ -10257,8 +10919,333 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11">
+        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper14">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId8" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId8" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId10" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId10" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId12" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId12" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId14" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId16" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId16" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId18" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>1048575</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId18" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId20" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>1048575</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId20" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId22" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId22" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId24" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId24" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId26" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId26" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId28" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId28" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId30" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -10277,49 +11264,253 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11"/>
+        <control shapeId="1044" r:id="rId30" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69372841-2205-4369-ABDD-15A1D3D36AA6}">
+  <sheetPr codeName="Planilha18"/>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576" xr:uid="{8815FBF2-F8A5-45D7-A39C-8F42D14F23D4}">
+      <formula1>"Cartão Stark Bank Branco"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="95233" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10"/>
+        <control shapeId="95233" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9">
+        <control shapeId="95234" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95234" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95235" r:id="rId8" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -10327,271 +11518,46 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9"/>
+        <control shapeId="95235" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="95237" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>1048575</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId16" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>1048575</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId16" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13"/>
+        <control shapeId="95237" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A48F37D-DF27-4112-948E-984B6F5D08FB}">
   <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10748,52 +11714,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10823,59 +11789,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7625DE08-E0FE-46F4-9267-5999D70A38A3}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:J9"/>
@@ -11029,8 +11995,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11">
+        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -11049,89 +12090,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765C0307-1BBC-4F1B-A539-9EA2DDDB1C4B}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:I9"/>
@@ -11199,8 +12165,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -11219,89 +12260,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E460CD7-AF1F-40AA-B137-8581E0E3D86F}">
   <sheetPr codeName="Planilha17"/>
   <dimension ref="A1:N9"/>
@@ -11509,8 +12475,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -11529,139 +12620,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C7D071-5CAD-4E99-8878-39A60CDC47FD}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:J9"/>
@@ -11732,52 +12698,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11807,59 +12773,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4530B2B6-CBE7-4A07-A94E-38245FAD7DC4}">
   <sheetPr codeName="Planilha15"/>
   <dimension ref="A1:M9"/>
@@ -12057,8 +13023,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -12077,308 +13118,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3398AC-EC0F-419C-B3DC-65B3AA806674}">
-  <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="8" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A9:J9" xr:uid="{8E3398AC-EC0F-419C-B3DC-65B3AA806674}"/>
-  <dataConsolidate/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1"/>
+        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Documents\deploy-cartshop-hoje\sdk-excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975E942-8B2F-4B25-B4A9-E6A753ADCB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74906BF6-3D37-4C98-9A47-7BADC4A8CB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId1"/>
@@ -399,7 +399,7 @@
     <t>Ex: 20018-183</t>
   </si>
   <si>
-    <t>Stark Bank SDK Excel - v3.0.9</t>
+    <t>Stark Bank SDK Excel - v3.1.0</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23A4525A1295E524FB7284BA2EA2DC8317EF42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -685,7 +685,24 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -697,29 +714,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -736,7 +736,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -753,7 +753,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23A4525A1295E524FB7284BA2EA2DC8317EF42"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -770,19 +770,36 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="397AE3E0A32833341B5399FC391E12926F72C3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -799,36 +816,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="397AE3E0A32833341B5399FC391E12926F72C3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="15BA0FB321DE6D148D81BF60113447A8E50371"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5974E136658C5454320585C85BAB48B9439E65"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -838,14 +838,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -855,7 +855,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -872,14 +872,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -906,14 +906,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -923,19 +923,70 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -952,29 +1003,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -986,24 +1020,58 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1020,75 +1088,92 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1105,97 +1190,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="544CE9B5B5F4C8548335AFF35313355602FAD5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1212,7 +1212,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1229,13 +1229,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1263,7 +1263,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1280,7 +1280,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1297,19 +1297,36 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1326,41 +1343,126 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7B414461476FE874FCC7AF487111D4DE5C31F7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1377,29 +1479,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1411,29 +1496,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1445,12 +1513,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1462,24 +1530,41 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6DF62D0586063D64B576813E624CB2DFF23CB6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1496,92 +1581,75 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55583C5835971E5409E5944455073F47DDC2A5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1598,80 +1666,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="180E934D715B35148521A4DA16BAC3E49AA421"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1688,7 +1688,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1722,7 +1722,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1739,7 +1739,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1756,7 +1756,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1773,7 +1773,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1790,14 +1790,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BD6BA4211BC3E14DAF185961A2B376D133421"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1824,7 +1824,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1841,7 +1841,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1858,14 +1858,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1875,7 +1875,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1909,7 +1909,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1926,14 +1926,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1943,7 +1943,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1960,13 +1960,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1977,14 +1977,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BD6BA4211BC3E14DAF185961A2B376D133421"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2011,13 +2011,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2028,7 +2028,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2045,7 +2045,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2062,7 +2062,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2096,7 +2096,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2113,7 +2113,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2130,14 +2130,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2147,7 +2147,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2164,13 +2164,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2198,7 +2198,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2215,14 +2215,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -8403,8 +8403,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -8423,132 +8548,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8665,8 +8665,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    